--- a/Tabla.xlsx
+++ b/Tabla.xlsx
@@ -1316,16 +1316,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,10 +1647,10 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="E4" s="2">
         <f ca="1">+RANDBETWEEN(5,17)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">2022-E4</f>
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>226</v>
@@ -1763,18 +1763,18 @@
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ref="P4:P22" ca="1" si="1">+RANDBETWEEN(10,68)</f>
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ref="Q4:R19" ca="1" si="2">+RANDBETWEEN(10,68)</f>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>222</v>
@@ -1807,14 +1807,14 @@
       </c>
       <c r="E5" s="2">
         <f t="shared" ref="E5:E68" ca="1" si="4">+RANDBETWEEN(5,17)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:G68" ca="1" si="5">2022-E5</f>
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>227</v>
@@ -1830,37 +1830,37 @@
       </c>
       <c r="L5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>228</v>
@@ -1901,30 +1901,30 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>224</v>
@@ -1949,14 +1949,14 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1976,26 +1976,26 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>225</v>
@@ -2043,30 +2043,30 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>222</v>
@@ -2091,14 +2091,14 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>24</v>
@@ -2114,37 +2114,37 @@
       </c>
       <c r="L9" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="M9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
       <c r="N9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2162,14 +2162,14 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>229</v>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="L10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2193,29 +2193,29 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2233,14 +2233,14 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>230</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="L11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2271,22 +2271,22 @@
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2304,14 +2304,14 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>231</v>
@@ -2327,11 +2327,11 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2342,22 +2342,22 @@
       </c>
       <c r="P12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2375,14 +2375,14 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>232</v>
@@ -2402,33 +2402,33 @@
       </c>
       <c r="M13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2446,14 +2446,14 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>233</v>
@@ -2469,37 +2469,37 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2517,14 +2517,14 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>234</v>
@@ -2540,37 +2540,37 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="S15" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2588,14 +2588,14 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>235</v>
@@ -2611,15 +2611,15 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>365</v>
@@ -2630,18 +2630,18 @@
       </c>
       <c r="Q16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="S16" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2659,14 +2659,14 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>236</v>
@@ -2682,30 +2682,30 @@
       </c>
       <c r="L17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>223</v>
@@ -2730,14 +2730,14 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>237</v>
@@ -2753,30 +2753,30 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>224</v>
@@ -2801,14 +2801,14 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>238</v>
@@ -2824,11 +2824,11 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2839,22 +2839,22 @@
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2872,14 +2872,14 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>239</v>
@@ -2895,37 +2895,37 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20:R22" ca="1" si="6">+RANDBETWEEN(10,68)</f>
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -2943,14 +2943,14 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>70</v>
@@ -2966,37 +2966,37 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="M21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
       <c r="N21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3014,14 +3014,14 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>240</v>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -3045,29 +3045,29 @@
       </c>
       <c r="N22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2017</v>
+        <v>2009</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>241</v>
@@ -3108,37 +3108,37 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" ref="L23:N68" ca="1" si="7">+RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P23" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>56</v>
+        <f t="shared" ref="P23:R42" ca="1" si="8">+RANDBETWEEN(10,68)</f>
+        <v>66</v>
       </c>
       <c r="Q23" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
       </c>
       <c r="R23" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" ref="T23:T68" ca="1" si="8">+RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <f t="shared" ref="T23:T68" ca="1" si="9">+RANDBETWEEN(1,6)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3156,14 +3156,14 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>242</v>
@@ -3179,37 +3179,37 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P24" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>38</v>
       </c>
       <c r="Q24" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
       </c>
       <c r="R24" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>35</v>
       </c>
       <c r="S24" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3227,14 +3227,14 @@
       </c>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>243</v>
@@ -3250,37 +3250,37 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P25" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
       </c>
       <c r="Q25" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>43</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
       </c>
       <c r="R25" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
       </c>
       <c r="S25" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3298,14 +3298,14 @@
       </c>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>244</v>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="M26" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -3335,23 +3335,23 @@
         <v>366</v>
       </c>
       <c r="P26" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>37</v>
       </c>
       <c r="Q26" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
       </c>
       <c r="R26" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
       </c>
       <c r="S26" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3369,14 +3369,14 @@
       </c>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>245</v>
@@ -3396,33 +3396,33 @@
       </c>
       <c r="M27" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P27" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
       </c>
       <c r="Q27" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>27</v>
       </c>
       <c r="R27" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>51</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3440,14 +3440,14 @@
       </c>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>246</v>
@@ -3471,29 +3471,29 @@
       </c>
       <c r="N28" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P28" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>45</v>
       </c>
       <c r="Q28" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
       </c>
       <c r="R28" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3511,14 +3511,14 @@
       </c>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>247</v>
@@ -3534,37 +3534,37 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P29" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>25</v>
       </c>
       <c r="Q29" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>41</v>
       </c>
       <c r="R29" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
       </c>
       <c r="S29" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3582,14 +3582,14 @@
       </c>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>248</v>
@@ -3609,33 +3609,33 @@
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P30" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>55</v>
       </c>
       <c r="Q30" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
       </c>
       <c r="R30" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>23</v>
       </c>
       <c r="S30" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3653,14 +3653,14 @@
       </c>
       <c r="E31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>249</v>
@@ -3676,37 +3676,37 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N31" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P31" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" ca="1" si="8"/>
         <v>22</v>
-      </c>
-      <c r="Q31" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>20</v>
-      </c>
-      <c r="R31" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>36</v>
       </c>
       <c r="S31" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3724,14 +3724,14 @@
       </c>
       <c r="E32" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>250</v>
@@ -3747,36 +3747,36 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P32" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>51</v>
       </c>
       <c r="Q32" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>30</v>
       </c>
       <c r="R32" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>18</v>
       </c>
       <c r="S32" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -3795,14 +3795,14 @@
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>251</v>
@@ -3818,37 +3818,37 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N33" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P33" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>14</v>
       </c>
       <c r="Q33" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>53</v>
       </c>
       <c r="R33" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3866,14 +3866,14 @@
       </c>
       <c r="E34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>252</v>
@@ -3889,37 +3889,37 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P34" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
       </c>
       <c r="Q34" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
       </c>
       <c r="R34" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>39</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -3937,14 +3937,14 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>253</v>
@@ -3960,36 +3960,36 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>5</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N35" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P35" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" ca="1" si="8"/>
         <v>44</v>
-      </c>
-      <c r="Q35" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>18</v>
-      </c>
-      <c r="R35" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>10</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -4008,14 +4008,14 @@
       </c>
       <c r="E36" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>254</v>
@@ -4031,37 +4031,37 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M36" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P36" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
       </c>
       <c r="Q36" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>48</v>
       </c>
       <c r="R36" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>31</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4079,14 +4079,14 @@
       </c>
       <c r="E37" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>255</v>
@@ -4102,36 +4102,36 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P37" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42</v>
       </c>
       <c r="Q37" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>66</v>
       </c>
       <c r="R37" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>63</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -4150,14 +4150,14 @@
       </c>
       <c r="E38" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>256</v>
@@ -4173,37 +4173,37 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M38" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P38" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>22</v>
       </c>
       <c r="Q38" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>26</v>
       </c>
       <c r="R38" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4221,14 +4221,14 @@
       </c>
       <c r="E39" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>257</v>
@@ -4244,37 +4244,37 @@
       </c>
       <c r="L39" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M39" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P39" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>55</v>
       </c>
       <c r="Q39" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>32</v>
       </c>
       <c r="R39" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>29</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4292,14 +4292,14 @@
       </c>
       <c r="E40" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>258</v>
@@ -4315,37 +4315,37 @@
       </c>
       <c r="L40" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P40" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
       </c>
       <c r="Q40" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
       </c>
       <c r="R40" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>52</v>
       </c>
       <c r="S40" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4363,14 +4363,14 @@
       </c>
       <c r="E41" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>259</v>
@@ -4386,36 +4386,36 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="N41" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P41" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>68</v>
       </c>
       <c r="Q41" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>56</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>24</v>
       </c>
       <c r="R41" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -4457,11 +4457,11 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
       </c>
       <c r="N42" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -4471,23 +4471,23 @@
         <v>366</v>
       </c>
       <c r="P42" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>13</v>
       </c>
       <c r="Q42" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>42</v>
       </c>
       <c r="R42" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
       </c>
       <c r="S42" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4505,14 +4505,14 @@
       </c>
       <c r="E43" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>261</v>
@@ -4528,37 +4528,37 @@
       </c>
       <c r="L43" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="M43" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
       <c r="N43" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P43" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>41</v>
+        <f t="shared" ref="P43:R62" ca="1" si="10">+RANDBETWEEN(10,68)</f>
+        <v>13</v>
       </c>
       <c r="Q43" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>42</v>
       </c>
       <c r="R43" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
       </c>
       <c r="S43" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4576,14 +4576,14 @@
       </c>
       <c r="E44" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>262</v>
@@ -4599,37 +4599,37 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N44" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P44" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
       </c>
       <c r="Q44" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
       </c>
       <c r="R44" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>39</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4647,14 +4647,14 @@
       </c>
       <c r="E45" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>263</v>
@@ -4670,7 +4670,7 @@
       </c>
       <c r="L45" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -4678,29 +4678,29 @@
       </c>
       <c r="N45" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P45" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>58</v>
       </c>
       <c r="Q45" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>43</v>
       </c>
       <c r="R45" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>54</v>
       </c>
       <c r="S45" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T45" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4718,14 +4718,14 @@
       </c>
       <c r="E46" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>264</v>
@@ -4741,36 +4741,36 @@
       </c>
       <c r="L46" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P46" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
       </c>
       <c r="Q46" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>31</v>
       </c>
       <c r="R46" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>30</v>
       </c>
       <c r="S46" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -4789,14 +4789,14 @@
       </c>
       <c r="E47" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>265</v>
@@ -4812,37 +4812,37 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M47" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P47" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>36</v>
       </c>
       <c r="Q47" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
       </c>
       <c r="R47" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>12</v>
       </c>
       <c r="S47" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4860,14 +4860,14 @@
       </c>
       <c r="E48" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>266</v>
@@ -4883,37 +4883,37 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N48" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="N48" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P48" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>34</v>
       </c>
       <c r="Q48" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
       </c>
       <c r="R48" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>56</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>50</v>
       </c>
       <c r="S48" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T48" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -4931,14 +4931,14 @@
       </c>
       <c r="E49" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>267</v>
@@ -4958,33 +4958,33 @@
       </c>
       <c r="M49" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N49" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P49" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="Q49" s="2">
+        <f t="shared" ca="1" si="10"/>
         <v>49</v>
       </c>
-      <c r="Q49" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>40</v>
-      </c>
       <c r="R49" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
       </c>
       <c r="S49" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T49" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5002,14 +5002,14 @@
       </c>
       <c r="E50" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>268</v>
@@ -5025,37 +5025,37 @@
       </c>
       <c r="L50" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="N50" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P50" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>17</v>
       </c>
       <c r="Q50" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>65</v>
       </c>
       <c r="R50" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>30</v>
       </c>
       <c r="S50" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5073,14 +5073,14 @@
       </c>
       <c r="E51" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>269</v>
@@ -5096,37 +5096,37 @@
       </c>
       <c r="L51" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N51" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P51" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
       </c>
       <c r="Q51" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" ca="1" si="10"/>
         <v>28</v>
-      </c>
-      <c r="R51" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>65</v>
       </c>
       <c r="S51" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5144,14 +5144,14 @@
       </c>
       <c r="E52" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>270</v>
@@ -5167,37 +5167,37 @@
       </c>
       <c r="L52" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>5</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="N52" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P52" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>67</v>
       </c>
       <c r="Q52" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>33</v>
       </c>
       <c r="R52" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>26</v>
       </c>
       <c r="S52" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="E53" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>271</v>
@@ -5238,37 +5238,37 @@
       </c>
       <c r="L53" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P53" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45</v>
       </c>
       <c r="Q53" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
       </c>
       <c r="R53" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>47</v>
       </c>
       <c r="S53" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5286,14 +5286,14 @@
       </c>
       <c r="E54" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>272</v>
@@ -5309,37 +5309,37 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="N54" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P54" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>64</v>
       </c>
       <c r="Q54" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>30</v>
       </c>
       <c r="R54" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>49</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5357,14 +5357,14 @@
       </c>
       <c r="E55" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>273</v>
@@ -5384,33 +5384,33 @@
       </c>
       <c r="M55" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P55" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>66</v>
       </c>
       <c r="Q55" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>46</v>
       </c>
       <c r="R55" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>62</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5428,14 +5428,14 @@
       </c>
       <c r="E56" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>75</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>274</v>
@@ -5455,33 +5455,33 @@
       </c>
       <c r="M56" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
-      </c>
-      <c r="N56" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P56" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>40</v>
       </c>
       <c r="Q56" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>65</v>
       </c>
       <c r="R56" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>41</v>
       </c>
       <c r="S56" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5522,37 +5522,37 @@
       </c>
       <c r="L57" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P57" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>46</v>
       </c>
       <c r="Q57" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>31</v>
       </c>
       <c r="R57" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
       </c>
       <c r="S57" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5593,37 +5593,37 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P58" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>60</v>
       </c>
       <c r="Q58" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>16</v>
       </c>
       <c r="R58" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>39</v>
       </c>
       <c r="S58" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="E59" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>277</v>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="L59" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -5678,23 +5678,23 @@
         <v>365</v>
       </c>
       <c r="P59" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>67</v>
       </c>
       <c r="Q59" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>55</v>
       </c>
       <c r="R59" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>44</v>
       </c>
       <c r="S59" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T59" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5712,14 +5712,14 @@
       </c>
       <c r="E60" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>278</v>
@@ -5735,11 +5735,11 @@
       </c>
       <c r="L60" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
       </c>
       <c r="N60" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -5749,23 +5749,23 @@
         <v>365</v>
       </c>
       <c r="P60" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
       </c>
       <c r="Q60" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>60</v>
       </c>
       <c r="R60" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>21</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5783,14 +5783,14 @@
       </c>
       <c r="E61" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>279</v>
@@ -5806,37 +5806,37 @@
       </c>
       <c r="L61" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-      <c r="M61" s="2">
+      <c r="N61" s="2">
         <f t="shared" ca="1" si="7"/>
         <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P61" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>57</v>
       </c>
       <c r="Q61" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>58</v>
       </c>
       <c r="R61" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>30</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5854,14 +5854,14 @@
       </c>
       <c r="E62" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>280</v>
@@ -5877,37 +5877,37 @@
       </c>
       <c r="L62" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-      <c r="M62" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
       <c r="N62" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P62" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="10"/>
         <v>51</v>
       </c>
       <c r="Q62" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="R62" s="2">
+        <f t="shared" ca="1" si="10"/>
         <v>30</v>
-      </c>
-      <c r="R62" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>22</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T62" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5925,14 +5925,14 @@
       </c>
       <c r="E63" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>281</v>
@@ -5948,37 +5948,37 @@
       </c>
       <c r="L63" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-      <c r="M63" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
       <c r="N63" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P63" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>17</v>
+        <f t="shared" ref="P63:R82" ca="1" si="11">+RANDBETWEEN(10,68)</f>
+        <v>11</v>
       </c>
       <c r="Q63" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>29</v>
       </c>
       <c r="R63" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
       </c>
       <c r="S63" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T63" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -5996,14 +5996,14 @@
       </c>
       <c r="E64" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>282</v>
@@ -6023,33 +6023,33 @@
       </c>
       <c r="M64" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N64" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P64" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>24</v>
       </c>
       <c r="Q64" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>53</v>
       </c>
       <c r="R64" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>32</v>
       </c>
       <c r="S64" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T64" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="L65" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -6104,23 +6104,23 @@
         <v>365</v>
       </c>
       <c r="P65" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="Q65" s="2">
+        <f t="shared" ca="1" si="11"/>
         <v>29</v>
       </c>
-      <c r="Q65" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>16</v>
-      </c>
       <c r="R65" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
       </c>
       <c r="S65" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T65" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6138,14 +6138,14 @@
       </c>
       <c r="E66" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>284</v>
@@ -6161,36 +6161,36 @@
       </c>
       <c r="L66" s="2">
         <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
-      <c r="M66" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
       <c r="N66" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P66" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
       </c>
       <c r="Q66" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
       </c>
       <c r="R66" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>32</v>
       </c>
       <c r="S66" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T66" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -6209,14 +6209,14 @@
       </c>
       <c r="E67" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G67" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>285</v>
@@ -6232,36 +6232,36 @@
       </c>
       <c r="L67" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N67" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P67" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>33</v>
       </c>
       <c r="Q67" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
       </c>
       <c r="R67" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
       </c>
       <c r="S67" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T67" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -6280,14 +6280,14 @@
       </c>
       <c r="E68" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>286</v>
@@ -6317,23 +6317,23 @@
         <v>365</v>
       </c>
       <c r="P68" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
       </c>
       <c r="Q68" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
       </c>
       <c r="R68" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>31</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>47</v>
       </c>
       <c r="S68" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T68" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6350,14 +6350,14 @@
         <v>187</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" ref="E69:E103" ca="1" si="9">+RANDBETWEEN(5,17)</f>
+        <f t="shared" ref="E69:E103" ca="1" si="12">+RANDBETWEEN(5,17)</f>
         <v>10</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:G103" ca="1" si="10">2022-E69</f>
+        <f t="shared" ref="G69:G103" ca="1" si="13">2022-E69</f>
         <v>2012</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -6373,37 +6373,37 @@
         <v>187</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" ref="L69:N103" ca="1" si="11">+RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ref="L69:N103" ca="1" si="14">+RANDBETWEEN(1,5)</f>
+        <v>5</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="N69" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>3</v>
-      </c>
-      <c r="N69" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P69" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>41</v>
       </c>
       <c r="Q69" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>66</v>
       </c>
       <c r="R69" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
       </c>
       <c r="S69" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T69" s="2">
-        <f t="shared" ref="T69:T103" ca="1" si="12">+RANDBETWEEN(1,6)</f>
+        <f t="shared" ref="T69:T103" ca="1" si="15">+RANDBETWEEN(1,6)</f>
         <v>3</v>
       </c>
     </row>
@@ -6421,15 +6421,15 @@
         <v>188</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2005</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2006</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>288</v>
@@ -6444,38 +6444,38 @@
         <v>188</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>3</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="N70" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P70" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>64</v>
       </c>
       <c r="Q70" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
       </c>
       <c r="R70" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>42</v>
       </c>
       <c r="S70" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T70" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6492,15 +6492,15 @@
         <v>189</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2015</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>289</v>
@@ -6515,37 +6515,37 @@
         <v>189</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
-      </c>
-      <c r="N71" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P71" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
       </c>
       <c r="Q71" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>32</v>
       </c>
       <c r="R71" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
       </c>
       <c r="S71" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T71" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6563,15 +6563,15 @@
         <v>190</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2012</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2005</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>290</v>
@@ -6586,38 +6586,38 @@
         <v>190</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="N72" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P72" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>67</v>
       </c>
       <c r="Q72" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>62</v>
       </c>
       <c r="R72" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>18</v>
       </c>
       <c r="S72" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T72" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6634,15 +6634,15 @@
         <v>191</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2010</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2011</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>291</v>
@@ -6657,38 +6657,38 @@
         <v>191</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P73" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>50</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>31</v>
       </c>
       <c r="Q73" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
       </c>
       <c r="R73" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>46</v>
       </c>
       <c r="S73" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T73" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6705,14 +6705,14 @@
         <v>192</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2017</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -6728,38 +6728,38 @@
         <v>192</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>2</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P74" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45</v>
       </c>
       <c r="Q74" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>23</v>
       </c>
       <c r="R74" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T74" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6776,15 +6776,15 @@
         <v>193</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2012</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2011</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>293</v>
@@ -6799,38 +6799,38 @@
         <v>193</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="N75" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>4</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P75" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
       </c>
       <c r="Q75" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>65</v>
       </c>
       <c r="R75" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
       </c>
       <c r="S75" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6847,15 +6847,15 @@
         <v>194</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>16</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2009</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2006</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>294</v>
@@ -6870,38 +6870,38 @@
         <v>194</v>
       </c>
       <c r="L76" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="N76" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>3</v>
-      </c>
-      <c r="N76" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P76" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>56</v>
       </c>
       <c r="Q76" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>65</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
       </c>
       <c r="R76" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>51</v>
       </c>
       <c r="S76" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T76" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6918,15 +6918,15 @@
         <v>195</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2005</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2011</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>295</v>
@@ -6941,38 +6941,38 @@
         <v>195</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="N77" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>4</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P77" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>54</v>
       </c>
       <c r="Q77" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>59</v>
       </c>
       <c r="R77" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
       </c>
       <c r="S77" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -6989,15 +6989,15 @@
         <v>196</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2010</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2013</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>296</v>
@@ -7012,38 +7012,38 @@
         <v>196</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="N78" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P78" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>22</v>
       </c>
       <c r="Q78" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>39</v>
       </c>
       <c r="R78" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>63</v>
       </c>
       <c r="S78" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7060,15 +7060,15 @@
         <v>197</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2008</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2009</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>297</v>
@@ -7083,38 +7083,38 @@
         <v>197</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="N79" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>4</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P79" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>51</v>
       </c>
       <c r="Q79" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>27</v>
       </c>
       <c r="R79" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>44</v>
       </c>
       <c r="S79" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7131,15 +7131,15 @@
         <v>198</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>14</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2013</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2008</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>298</v>
@@ -7154,38 +7154,38 @@
         <v>198</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="N80" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P80" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>57</v>
       </c>
       <c r="Q80" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>41</v>
       </c>
       <c r="R80" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7202,15 +7202,15 @@
         <v>199</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2012</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2013</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>299</v>
@@ -7225,38 +7225,38 @@
         <v>199</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="N81" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
-      </c>
-      <c r="N81" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P81" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
       </c>
       <c r="Q81" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>41</v>
       </c>
       <c r="R81" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>29</v>
       </c>
       <c r="S81" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7273,15 +7273,15 @@
         <v>200</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2017</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2015</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>300</v>
@@ -7296,38 +7296,38 @@
         <v>200</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="N82" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P82" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="11"/>
         <v>56</v>
       </c>
       <c r="Q82" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>59</v>
       </c>
       <c r="R82" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>61</v>
       </c>
       <c r="S82" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7344,15 +7344,15 @@
         <v>201</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2016</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2005</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>301</v>
@@ -7367,38 +7367,38 @@
         <v>201</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="M83" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="N83" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
-      </c>
-      <c r="M83" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="N83" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P83" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>65</v>
+        <f t="shared" ref="P83:R103" ca="1" si="16">+RANDBETWEEN(10,68)</f>
+        <v>48</v>
       </c>
       <c r="Q83" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>53</v>
       </c>
       <c r="R83" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>48</v>
       </c>
       <c r="S83" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7415,15 +7415,15 @@
         <v>202</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>17</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2014</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2005</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>302</v>
@@ -7438,38 +7438,38 @@
         <v>202</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="M84" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="N84" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P84" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>65</v>
       </c>
       <c r="Q84" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>35</v>
       </c>
       <c r="R84" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>55</v>
       </c>
       <c r="S84" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7486,14 +7486,14 @@
         <v>203</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>7</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2015</v>
       </c>
       <c r="H85" s="2" t="s">
@@ -7509,38 +7509,38 @@
         <v>203</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="M85" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>2</v>
       </c>
       <c r="N85" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P85" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>67</v>
       </c>
       <c r="Q85" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>29</v>
       </c>
       <c r="R85" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>48</v>
       </c>
       <c r="S85" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7557,15 +7557,15 @@
         <v>204</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2014</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2016</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>304</v>
@@ -7580,38 +7580,38 @@
         <v>204</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>4</v>
       </c>
       <c r="M86" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="N86" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P86" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="16"/>
         <v>10</v>
       </c>
       <c r="Q86" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>42</v>
       </c>
       <c r="R86" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>65</v>
       </c>
       <c r="S86" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T86" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7628,15 +7628,15 @@
         <v>205</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2011</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2015</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>305</v>
@@ -7651,38 +7651,38 @@
         <v>205</v>
       </c>
       <c r="L87" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M87" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>4</v>
       </c>
-      <c r="M87" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
       <c r="N87" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>3</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P87" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>37</v>
       </c>
       <c r="Q87" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>39</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>50</v>
       </c>
       <c r="R87" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>68</v>
       </c>
       <c r="S87" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7699,15 +7699,15 @@
         <v>206</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2012</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2016</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>306</v>
@@ -7722,38 +7722,38 @@
         <v>206</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>2</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="N88" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
-      </c>
-      <c r="N88" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P88" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>60</v>
       </c>
       <c r="Q88" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>20</v>
       </c>
       <c r="R88" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>30</v>
       </c>
       <c r="S88" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7770,15 +7770,15 @@
         <v>207</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2016</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2014</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>307</v>
@@ -7793,38 +7793,38 @@
         <v>207</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="M89" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="N89" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P89" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>24</v>
       </c>
       <c r="Q89" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
+        <f t="shared" ca="1" si="16"/>
+        <v>47</v>
+      </c>
+      <c r="R89" s="2">
+        <f t="shared" ca="1" si="16"/>
         <v>66</v>
-      </c>
-      <c r="R89" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>16</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7841,14 +7841,14 @@
         <v>208</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>10</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2012</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -7864,38 +7864,38 @@
         <v>208</v>
       </c>
       <c r="L90" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="M90" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="N90" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P90" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>20</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>36</v>
       </c>
       <c r="Q90" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>23</v>
       </c>
       <c r="R90" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>67</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7912,15 +7912,15 @@
         <v>209</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2016</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2011</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>309</v>
@@ -7935,38 +7935,38 @@
         <v>209</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="M91" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N91" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
-      </c>
-      <c r="M91" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="N91" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P91" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
       </c>
       <c r="Q91" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>40</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>59</v>
       </c>
       <c r="R91" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>67</v>
       </c>
       <c r="S91" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -7983,15 +7983,15 @@
         <v>210</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2005</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2010</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>310</v>
@@ -8006,38 +8006,38 @@
         <v>210</v>
       </c>
       <c r="L92" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>2</v>
       </c>
       <c r="M92" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="N92" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
-      </c>
-      <c r="N92" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P92" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>21</v>
       </c>
       <c r="Q92" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>63</v>
       </c>
       <c r="R92" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>67</v>
       </c>
       <c r="S92" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8054,15 +8054,15 @@
         <v>211</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2010</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2011</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>311</v>
@@ -8077,38 +8077,38 @@
         <v>211</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="M93" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="N93" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P93" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>23</v>
       </c>
       <c r="Q93" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>60</v>
       </c>
       <c r="R93" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
       </c>
       <c r="S93" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8125,15 +8125,15 @@
         <v>212</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2015</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2011</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>312</v>
@@ -8148,38 +8148,38 @@
         <v>212</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="M94" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="N94" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P94" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>38</v>
       </c>
       <c r="Q94" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>25</v>
       </c>
       <c r="R94" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>23</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8196,15 +8196,15 @@
         <v>213</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2005</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2011</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>313</v>
@@ -8219,38 +8219,38 @@
         <v>213</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="M95" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="N95" s="2">
+        <f t="shared" ca="1" si="14"/>
         <v>4</v>
-      </c>
-      <c r="M95" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="N95" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P95" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>51</v>
       </c>
       <c r="Q95" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>54</v>
       </c>
       <c r="R95" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>39</v>
       </c>
       <c r="S95" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8267,15 +8267,15 @@
         <v>214</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2013</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2008</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>314</v>
@@ -8290,38 +8290,38 @@
         <v>214</v>
       </c>
       <c r="L96" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="M96" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="N96" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P96" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>58</v>
       </c>
       <c r="Q96" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>35</v>
       </c>
       <c r="R96" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>17</v>
       </c>
       <c r="S96" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8338,15 +8338,15 @@
         <v>215</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2009</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2014</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>315</v>
@@ -8361,37 +8361,37 @@
         <v>215</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="M97" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="N97" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>4</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P97" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>43</v>
       </c>
       <c r="Q97" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>22</v>
       </c>
       <c r="R97" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>63</v>
       </c>
       <c r="S97" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>6</v>
       </c>
     </row>
@@ -8409,15 +8409,15 @@
         <v>216</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2008</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2009</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>316</v>
@@ -8432,37 +8432,37 @@
         <v>216</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="M98" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="N98" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P98" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>36</v>
       </c>
       <c r="Q98" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>54</v>
       </c>
       <c r="R98" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>51</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>27</v>
       </c>
       <c r="S98" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
     </row>
@@ -8480,15 +8480,15 @@
         <v>217</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2008</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2010</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>317</v>
@@ -8503,38 +8503,38 @@
         <v>217</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="M99" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="N99" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P99" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
       </c>
       <c r="Q99" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>63</v>
       </c>
       <c r="R99" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>45</v>
       </c>
       <c r="S99" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8551,15 +8551,15 @@
         <v>218</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2009</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2010</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>318</v>
@@ -8574,38 +8574,38 @@
         <v>218</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>4</v>
       </c>
       <c r="M100" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
       </c>
       <c r="N100" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>3</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P100" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>23</v>
       </c>
       <c r="Q100" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>10</v>
-      </c>
-      <c r="R100" s="11">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="R100" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>50</v>
       </c>
       <c r="S100" s="2" t="s">
         <v>222</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8622,15 +8622,15 @@
         <v>219</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2009</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2011</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>319</v>
@@ -8645,38 +8645,38 @@
         <v>219</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>5</v>
       </c>
       <c r="M101" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="N101" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>365</v>
       </c>
       <c r="P101" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>25</v>
       </c>
       <c r="Q101" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>30</v>
       </c>
       <c r="R101" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>32</v>
       </c>
       <c r="S101" s="2" t="s">
         <v>223</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8693,14 +8693,14 @@
         <v>220</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2017</v>
       </c>
       <c r="H102" s="2" t="s">
@@ -8716,38 +8716,38 @@
         <v>220</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="M102" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>3</v>
       </c>
       <c r="N102" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P102" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>26</v>
       </c>
       <c r="Q102" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>63</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>33</v>
       </c>
       <c r="R102" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>47</v>
       </c>
       <c r="S102" s="2" t="s">
         <v>224</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -8764,15 +8764,15 @@
         <v>221</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>13</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>76</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>2013</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2009</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>321</v>
@@ -8787,38 +8787,38 @@
         <v>221</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
       </c>
       <c r="M103" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="N103" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>366</v>
       </c>
       <c r="P103" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>64</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>56</v>
       </c>
       <c r="Q103" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>34</v>
       </c>
       <c r="R103" s="2">
-        <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>55</v>
       </c>
       <c r="S103" s="2" t="s">
         <v>225</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8836,7 +8836,7 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8848,10 +8848,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -8890,7 +8890,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>33</v>
@@ -8904,33 +8904,33 @@
       <c r="E4" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <f ca="1">+RANDBETWEEN(1000000,2000000)</f>
-        <v>1740392</v>
+        <v>1775429</v>
       </c>
       <c r="G4" s="2">
         <f ca="1">+RANDBETWEEN(315000000,321999999)</f>
-        <v>319607951</v>
+        <v>315789109</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ref="I4:K22" ca="1" si="0">+RANDBETWEEN(10,68)</f>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>34</v>
@@ -8944,33 +8944,33 @@
       <c r="E5" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <f t="shared" ref="F5:F23" ca="1" si="1">+RANDBETWEEN(1000000,2000000)</f>
-        <v>1167074</v>
+        <v>1015551</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ref="G5:G23" ca="1" si="2">+RANDBETWEEN(315000000,321999999)</f>
-        <v>320579179</v>
+        <v>321633034</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>35</v>
@@ -8984,33 +8984,33 @@
       <c r="E6" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1166803</v>
+        <v>1270691</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>319026793</v>
+        <v>318924232</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>36</v>
@@ -9024,33 +9024,33 @@
       <c r="E7" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1015749</v>
+        <v>1174781</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318267172</v>
+        <v>315052167</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>37</v>
@@ -9064,33 +9064,33 @@
       <c r="E8" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1275720</v>
+        <v>1152241</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318555127</v>
+        <v>321210906</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>59</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>38</v>
@@ -9104,33 +9104,33 @@
       <c r="E9" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1468809</v>
+        <v>1971188</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318901480</v>
+        <v>318163825</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>36</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>39</v>
@@ -9144,33 +9144,33 @@
       <c r="E10" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1804832</v>
+        <v>1388563</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>317501467</v>
+        <v>318019531</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>40</v>
@@ -9184,33 +9184,33 @@
       <c r="E11" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1288671</v>
+        <v>1500552</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>316727765</v>
+        <v>321518104</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>41</v>
@@ -9224,33 +9224,33 @@
       <c r="E12" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1000571</v>
+        <v>1811185</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>315609083</v>
+        <v>316163005</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>42</v>
@@ -9264,13 +9264,13 @@
       <c r="E13" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1723350</v>
+        <v>1668225</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>319384800</v>
+        <v>321332518</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>365</v>
@@ -9281,16 +9281,16 @@
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>43</v>
@@ -9304,33 +9304,33 @@
       <c r="E14" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1105590</v>
+        <v>1569628</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>316214004</v>
+        <v>316971909</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -9344,33 +9344,33 @@
       <c r="E15" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1092307</v>
+        <v>1996744</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>320122827</v>
+        <v>317204551</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>45</v>
@@ -9384,33 +9384,33 @@
       <c r="E16" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1112046</v>
+        <v>1637497</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>315816921</v>
+        <v>315394098</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>46</v>
@@ -9424,33 +9424,33 @@
       <c r="E17" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1518703</v>
+        <v>1395038</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318370442</v>
+        <v>320464495</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>47</v>
@@ -9464,33 +9464,33 @@
       <c r="E18" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1882621</v>
+        <v>1391371</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>321101164</v>
+        <v>318522446</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>48</v>
@@ -9504,33 +9504,33 @@
       <c r="E19" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1297401</v>
+        <v>1495545</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>320384204</v>
+        <v>320726137</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>49</v>
@@ -9544,33 +9544,33 @@
       <c r="E20" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1436923</v>
+        <v>1150774</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>316384108</v>
+        <v>318207387</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>50</v>
@@ -9584,33 +9584,33 @@
       <c r="E21" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1347644</v>
+        <v>1364686</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318041606</v>
+        <v>318993099</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>22</v>
@@ -9624,33 +9624,33 @@
       <c r="E22" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1484319</v>
+        <v>1922030</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>317556712</v>
+        <v>316902765</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>51</v>
@@ -9664,28 +9664,28 @@
       <c r="E23" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>1306604</v>
+        <v>1433782</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>316840142</v>
+        <v>321678894</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I23" s="2">
         <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="J23" s="2">
         <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K23" s="2">
         <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -9702,7 +9702,7 @@
   <dimension ref="A3:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>52</v>
@@ -9771,33 +9771,33 @@
       <c r="E5" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="10">
         <f ca="1">+RANDBETWEEN(2000000,4000000)</f>
-        <v>3237114</v>
+        <v>2538684</v>
       </c>
       <c r="G5" s="2">
         <f ca="1">+RANDBETWEEN(315000000,321999999)</f>
-        <v>316645709</v>
+        <v>316073254</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ref="I5:K23" ca="1" si="0">+RANDBETWEEN(10,68)</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>53</v>
@@ -9811,33 +9811,33 @@
       <c r="E6" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="10">
         <f t="shared" ref="F6:F24" ca="1" si="1">+RANDBETWEEN(2000000,4000000)</f>
-        <v>3401321</v>
+        <v>2282562</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ref="G6:G24" ca="1" si="2">+RANDBETWEEN(315000000,321999999)</f>
-        <v>321551349</v>
+        <v>321252508</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>54</v>
@@ -9851,33 +9851,33 @@
       <c r="E7" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2914453</v>
+        <v>3266802</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318707456</v>
+        <v>317883749</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>55</v>
@@ -9891,33 +9891,33 @@
       <c r="E8" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3449311</v>
+        <v>2687123</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>315330709</v>
+        <v>315725970</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>56</v>
@@ -9931,33 +9931,33 @@
       <c r="E9" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2011188</v>
+        <v>3597344</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>321971488</v>
+        <v>320628333</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>57</v>
@@ -9971,33 +9971,33 @@
       <c r="E10" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2673181</v>
+        <v>3138791</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>320961295</v>
+        <v>321386837</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>58</v>
@@ -10011,33 +10011,33 @@
       <c r="E11" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2139980</v>
+        <v>2702003</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>315444872</v>
+        <v>316518272</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>59</v>
@@ -10051,13 +10051,13 @@
       <c r="E12" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3889122</v>
+        <v>2296744</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>315096349</v>
+        <v>320441073</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>365</v>
@@ -10068,16 +10068,16 @@
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>60</v>
@@ -10091,33 +10091,33 @@
       <c r="E13" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3827541</v>
+        <v>3416118</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>316696477</v>
+        <v>317616154</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>61</v>
@@ -10131,33 +10131,33 @@
       <c r="E14" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2952023</v>
+        <v>2342252</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318110105</v>
+        <v>318888017</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>62</v>
@@ -10171,33 +10171,33 @@
       <c r="E15" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3179084</v>
+        <v>3301163</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>316946902</v>
+        <v>317743060</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>63</v>
@@ -10211,33 +10211,33 @@
       <c r="E16" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3607070</v>
+        <v>3986350</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318515787</v>
+        <v>317924858</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
@@ -10251,33 +10251,33 @@
       <c r="E17" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3825325</v>
+        <v>2595506</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>317454663</v>
+        <v>316543453</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>65</v>
@@ -10291,33 +10291,33 @@
       <c r="E18" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2993346</v>
+        <v>2349367</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>317221826</v>
+        <v>320394779</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>66</v>
@@ -10331,24 +10331,24 @@
       <c r="E19" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2858809</v>
+        <v>2751507</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>319090222</v>
+        <v>315905636</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>67</v>
@@ -10371,33 +10371,33 @@
       <c r="E20" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2953721</v>
+        <v>3124735</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>317665329</v>
+        <v>315379763</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>68</v>
@@ -10411,33 +10411,33 @@
       <c r="E21" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3567560</v>
+        <v>3946207</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>320351444</v>
+        <v>321963041</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>69</v>
@@ -10451,33 +10451,33 @@
       <c r="E22" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2198010</v>
+        <v>2718716</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318424987</v>
+        <v>317041413</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>70</v>
@@ -10491,33 +10491,33 @@
       <c r="E23" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>3352335</v>
+        <v>3458678</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>318492576</v>
+        <v>320455987</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>366</v>
       </c>
       <c r="I23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>71</v>
@@ -10531,28 +10531,28 @@
       <c r="E24" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>2146250</v>
+        <v>3832942</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>320281449</v>
+        <v>321680319</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I24" s="2">
         <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J24" s="2">
         <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K24" s="2">
         <f ca="1">+RANDBETWEEN(10,68)</f>
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
